--- a/experiment/linear/ex9_1_9/compare/Fuertemente-Estacionario/ex9_1_9_Fuertemente-Estacionario.xlsx
+++ b/experiment/linear/ex9_1_9/compare/Fuertemente-Estacionario/ex9_1_9_Fuertemente-Estacionario.xlsx
@@ -482,13 +482,13 @@
         <v>-542.5977402439025</v>
       </c>
       <c r="E2">
-        <v>0.00019719</v>
+        <v>0.000293884</v>
       </c>
       <c r="F2">
-        <v>0.02729943</v>
+        <v>0.020380019</v>
       </c>
       <c r="G2">
-        <v>0.00034695166499999996</v>
+        <v>0.00045500844910000005</v>
       </c>
       <c r="H2">
         <v>1845</v>
@@ -517,13 +517,13 @@
         <v>-542.5977402439024</v>
       </c>
       <c r="E3">
-        <v>0.00310905</v>
+        <v>0.004369107</v>
       </c>
       <c r="F3">
-        <v>0.00996687</v>
+        <v>0.009086218</v>
       </c>
       <c r="G3">
-        <v>0.003949115909810127</v>
+        <v>0.004884637435972629</v>
       </c>
       <c r="H3">
         <v>2609</v>
@@ -552,13 +552,13 @@
         <v>-542.5977456651733</v>
       </c>
       <c r="E4">
-        <v>0.00475848</v>
+        <v>0.006697469</v>
       </c>
       <c r="F4">
-        <v>0.0092511</v>
+        <v>0.01555142</v>
       </c>
       <c r="G4">
-        <v>0.005730546467889909</v>
+        <v>0.00781831336973479</v>
       </c>
       <c r="H4">
         <v>6299</v>
